--- a/data-quality-criteria.xlsx
+++ b/data-quality-criteria.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Criteria" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Criteria</t>
   </si>
@@ -196,6 +195,12 @@
   </si>
   <si>
     <t>assertive</t>
+  </si>
+  <si>
+    <t>3, 4, 5</t>
+  </si>
+  <si>
+    <t>9, 10, 12</t>
   </si>
 </sst>
 </file>
@@ -203,7 +208,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="00000"/>
+    <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -251,7 +256,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,7 +545,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,6 +611,9 @@
       <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
@@ -626,6 +634,9 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -671,6 +682,12 @@
       <c r="E6" t="s">
         <v>45</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -680,6 +697,9 @@
         <v>41</v>
       </c>
       <c r="C7" s="1"/>
+      <c r="G7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -688,6 +708,9 @@
       <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -705,12 +728,18 @@
       <c r="E9" t="s">
         <v>50</v>
       </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -911,7 +940,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D6" twoDigitTextYear="1"/>
+    <ignoredError sqref="D6:E6 F6 F8" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data-quality-criteria.xlsx
+++ b/data-quality-criteria.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Criteria</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>9, 10, 12</t>
+  </si>
+  <si>
+    <t>14, 17</t>
+  </si>
+  <si>
+    <t>1, 3, 5</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +671,9 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -688,6 +697,15 @@
       <c r="G6">
         <v>5</v>
       </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -729,6 +747,12 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -940,7 +964,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D6:E6 F6 F8" twoDigitTextYear="1"/>
+    <ignoredError sqref="D6:E6 F6 F8 I6" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data-quality-criteria.xlsx
+++ b/data-quality-criteria.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Criteria</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>1, 3, 5</t>
+  </si>
+  <si>
+    <t>arsenal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2 </t>
   </si>
 </sst>
 </file>
@@ -551,7 +557,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,6 +600,9 @@
       <c r="J1" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="N1" t="s">
         <v>4</v>
       </c>
@@ -705,6 +714,9 @@
       </c>
       <c r="J6" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">

--- a/data-quality-criteria.xlsx
+++ b/data-quality-criteria.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Criteria</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Data integrity</t>
-  </si>
-  <si>
     <t>Data dimensions</t>
   </si>
   <si>
@@ -149,12 +146,6 @@
     <t xml:space="preserve"> 1 - 5 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 6 - 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9 - 12 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 13 - 19</t>
   </si>
   <si>
@@ -213,6 +204,18 @@
   </si>
   <si>
     <t xml:space="preserve">1, 2 </t>
+  </si>
+  <si>
+    <t>Integrity: Structural data set error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1  -  3</t>
+  </si>
+  <si>
+    <t>Integrity: Data set combination error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4  -  5</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -269,6 +272,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,18 +557,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
@@ -577,31 +583,31 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
         <v>4</v>
@@ -612,28 +618,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -641,16 +647,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -658,325 +664,357 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>8</v>
-      </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>15</v>
+      <c r="B27" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>16</v>
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D6:E6 F6 F8 I6" twoDigitTextYear="1"/>
+    <ignoredError sqref="D7:E7 F7 F13 I7" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>